--- a/results/mp/deberta/corona/confidence/42/stop-words-topk-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-topk-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="104">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,12 +40,12 @@
     <t>name</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
@@ -55,211 +55,277 @@
     <t>low</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hands</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>employees</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
-    <t>co</t>
+    <t>di</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>know</t>
   </si>
   <si>
     <t>corona</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>hands</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>see</t>
+    <t>one</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>shelves</t>
+  </si>
+  <si>
+    <t>paper</t>
   </si>
   <si>
     <t>time</t>
   </si>
   <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>one</t>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>people</t>
   </si>
   <si>
     <t>workers</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
     <t>go</t>
   </si>
   <si>
-    <t>paper</t>
+    <t>going</t>
   </si>
   <si>
     <t>food</t>
+  </si>
+  <si>
+    <t>need</t>
   </si>
 </sst>
 </file>
@@ -617,7 +683,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q70"/>
+  <dimension ref="A1:Q92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -625,10 +691,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -686,13 +752,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7222222222222222</v>
+        <v>0.6952054794520548</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>203</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>203</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -704,31 +770,31 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K3">
-        <v>0.8717948717948718</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="N3">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -736,13 +802,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6917808219178082</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C4">
-        <v>202</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>202</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -754,31 +820,31 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K4">
-        <v>0.8623853211009175</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="N4">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -786,13 +852,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -804,31 +870,31 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K5">
-        <v>0.8503937007874016</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L5">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M5">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N5">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -836,49 +902,49 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.341747572815534</v>
+        <v>0.3468992248062016</v>
       </c>
       <c r="C6">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D6">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K6">
-        <v>0.8125</v>
+        <v>0.875</v>
       </c>
       <c r="L6">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="M6">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="N6">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -886,265 +952,193 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2147651006711409</v>
+        <v>0.2550335570469799</v>
       </c>
       <c r="C7">
+        <v>38</v>
+      </c>
+      <c r="D7">
+        <v>38</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>111</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>0.8414634146341463</v>
+      </c>
+      <c r="L7">
+        <v>69</v>
+      </c>
+      <c r="M7">
+        <v>69</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="J8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8">
+        <v>0.828125</v>
+      </c>
+      <c r="L8">
+        <v>106</v>
+      </c>
+      <c r="M8">
+        <v>106</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9">
+        <v>0.8</v>
+      </c>
+      <c r="L9">
+        <v>128</v>
+      </c>
+      <c r="M9">
+        <v>128</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>32</v>
       </c>
-      <c r="D7">
-        <v>32</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>117</v>
-      </c>
-      <c r="J7" s="1" t="s">
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K7">
-        <v>0.7931034482758621</v>
-      </c>
-      <c r="L7">
-        <v>46</v>
-      </c>
-      <c r="M7">
-        <v>47</v>
-      </c>
-      <c r="N7">
-        <v>0.98</v>
-      </c>
-      <c r="O7">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.02527743526510481</v>
-      </c>
-      <c r="C8">
-        <v>41</v>
-      </c>
-      <c r="D8">
-        <v>562</v>
-      </c>
-      <c r="E8">
-        <v>0.93</v>
-      </c>
-      <c r="F8">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1581</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8">
-        <v>0.7658227848101266</v>
-      </c>
-      <c r="L8">
-        <v>121</v>
-      </c>
-      <c r="M8">
-        <v>123</v>
-      </c>
-      <c r="N8">
-        <v>0.98</v>
-      </c>
-      <c r="O8">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P8" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q8">
+      <c r="K10">
+        <v>0.7872340425531915</v>
+      </c>
+      <c r="L10">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.01695633743111488</v>
-      </c>
-      <c r="C9">
-        <v>40</v>
-      </c>
-      <c r="D9">
-        <v>788</v>
-      </c>
-      <c r="E9">
-        <v>0.95</v>
-      </c>
-      <c r="F9">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>2319</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9">
-        <v>0.7304964539007093</v>
-      </c>
-      <c r="L9">
-        <v>103</v>
-      </c>
-      <c r="M9">
-        <v>104</v>
-      </c>
-      <c r="N9">
-        <v>0.99</v>
-      </c>
-      <c r="O9">
-        <v>0.01000000000000001</v>
-      </c>
-      <c r="P9" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.01319261213720317</v>
-      </c>
-      <c r="C10">
-        <v>35</v>
-      </c>
-      <c r="D10">
-        <v>583</v>
-      </c>
-      <c r="E10">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F10">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>2618</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10">
-        <v>0.7227722772277227</v>
-      </c>
-      <c r="L10">
-        <v>73</v>
-      </c>
       <c r="M10">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="N10">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K11">
-        <v>0.7142857142857143</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L11">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="M11">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="N11">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K12">
-        <v>0.6810344827586207</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L12">
-        <v>158</v>
+        <v>44</v>
       </c>
       <c r="M12">
-        <v>165</v>
+        <v>44</v>
       </c>
       <c r="N12">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>74</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K13">
-        <v>0.6521739130434783</v>
+        <v>0.7547169811320755</v>
       </c>
       <c r="L13">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="M13">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1156,125 +1150,125 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K14">
-        <v>0.6404199475065617</v>
+        <v>0.7394366197183099</v>
       </c>
       <c r="L14">
-        <v>244</v>
+        <v>105</v>
       </c>
       <c r="M14">
-        <v>246</v>
+        <v>105</v>
       </c>
       <c r="N14">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>137</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K15">
-        <v>0.6134969325153374</v>
+        <v>0.7322175732217573</v>
       </c>
       <c r="L15">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="M15">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="N15">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>126</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K16">
-        <v>0.5709342560553633</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="L16">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="M16">
-        <v>171</v>
+        <v>65</v>
       </c>
       <c r="N16">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>124</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K17">
-        <v>0.5263157894736842</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L17">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="M17">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="N17">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K18">
-        <v>0.5238095238095238</v>
+        <v>0.6422976501305483</v>
       </c>
       <c r="L18">
-        <v>33</v>
+        <v>246</v>
       </c>
       <c r="M18">
-        <v>33</v>
+        <v>246</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1286,229 +1280,229 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>30</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K19">
-        <v>0.5223880597014925</v>
+        <v>0.625</v>
       </c>
       <c r="L19">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N19">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K20">
-        <v>0.4712643678160919</v>
+        <v>0.6235294117647059</v>
       </c>
       <c r="L20">
-        <v>41</v>
+        <v>212</v>
       </c>
       <c r="M20">
-        <v>43</v>
+        <v>212</v>
       </c>
       <c r="N20">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>46</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K21">
-        <v>0.40625</v>
+        <v>0.6</v>
       </c>
       <c r="L21">
+        <v>39</v>
+      </c>
+      <c r="M21">
+        <v>39</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>26</v>
-      </c>
-      <c r="M21">
-        <v>27</v>
-      </c>
-      <c r="N21">
-        <v>0.96</v>
-      </c>
-      <c r="O21">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P21" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q21">
-        <v>38</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K22">
+        <v>0.5955056179775281</v>
+      </c>
+      <c r="L22">
+        <v>53</v>
+      </c>
+      <c r="M22">
+        <v>53</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>36</v>
-      </c>
-      <c r="K22">
-        <v>0.3971291866028708</v>
-      </c>
-      <c r="L22">
-        <v>83</v>
-      </c>
-      <c r="M22">
-        <v>89</v>
-      </c>
-      <c r="N22">
-        <v>0.93</v>
-      </c>
-      <c r="O22">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P22" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q22">
-        <v>126</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K23">
-        <v>0.3617021276595745</v>
+        <v>0.546875</v>
       </c>
       <c r="L23">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M23">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N23">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>60</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K24">
-        <v>0.3471882640586797</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="L24">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="M24">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="N24">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>267</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K25">
-        <v>0.3417721518987342</v>
+        <v>0.5054945054945055</v>
       </c>
       <c r="L25">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="M25">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="N25">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>104</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K26">
-        <v>0.3416149068322981</v>
+        <v>0.459016393442623</v>
       </c>
       <c r="L26">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="M26">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="N26">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>106</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K27">
-        <v>0.3391304347826087</v>
+        <v>0.4406779661016949</v>
       </c>
       <c r="L27">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="M27">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1520,47 +1514,47 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>76</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>0.3312629399585921</v>
+        <v>0.4372093023255814</v>
       </c>
       <c r="L28">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="M28">
-        <v>163</v>
+        <v>94</v>
       </c>
       <c r="N28">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>323</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K29">
-        <v>0.3186813186813187</v>
+        <v>0.4339622641509434</v>
       </c>
       <c r="L29">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="M29">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1572,47 +1566,47 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>62</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K30">
-        <v>0.3184713375796178</v>
+        <v>0.4027777777777778</v>
       </c>
       <c r="L30">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="M30">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="N30">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>107</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K31">
-        <v>0.3048780487804878</v>
+        <v>0.3917525773195876</v>
       </c>
       <c r="L31">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="M31">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1624,151 +1618,151 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K32">
-        <v>0.303921568627451</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="L32">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="M32">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="N32">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>213</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K33">
-        <v>0.2972972972972973</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L33">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="M33">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="N33">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>286</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K34">
-        <v>0.2844036697247707</v>
+        <v>0.3803680981595092</v>
       </c>
       <c r="L34">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="M34">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="N34">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>78</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K35">
-        <v>0.2794117647058824</v>
+        <v>0.3779904306220095</v>
       </c>
       <c r="L35">
-        <v>38</v>
+        <v>158</v>
       </c>
       <c r="M35">
-        <v>39</v>
+        <v>158</v>
       </c>
       <c r="N35">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>98</v>
+        <v>260</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K36">
-        <v>0.2769230769230769</v>
+        <v>0.3740458015267176</v>
       </c>
       <c r="L36">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="M36">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="N36">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K37">
-        <v>0.2695652173913043</v>
+        <v>0.373134328358209</v>
       </c>
       <c r="L37">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="M37">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1780,21 +1774,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>168</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K38">
-        <v>0.2653061224489796</v>
+        <v>0.353448275862069</v>
       </c>
       <c r="L38">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="M38">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1806,151 +1800,151 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K39">
-        <v>0.2632768361581921</v>
+        <v>0.3503649635036497</v>
       </c>
       <c r="L39">
-        <v>233</v>
+        <v>48</v>
       </c>
       <c r="M39">
-        <v>242</v>
+        <v>48</v>
       </c>
       <c r="N39">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>652</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K40">
-        <v>0.2621951219512195</v>
+        <v>0.3424657534246575</v>
       </c>
       <c r="L40">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="M40">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="N40">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>121</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K41">
-        <v>0.2582159624413146</v>
+        <v>0.3415637860082305</v>
       </c>
       <c r="L41">
-        <v>55</v>
+        <v>166</v>
       </c>
       <c r="M41">
-        <v>57</v>
+        <v>166</v>
       </c>
       <c r="N41">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>158</v>
+        <v>320</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K42">
-        <v>0.2578616352201258</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L42">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="M42">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="N42">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>236</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K43">
-        <v>0.2566371681415929</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="L43">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="M43">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="N43">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>252</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K44">
-        <v>0.2517482517482518</v>
+        <v>0.3212121212121212</v>
       </c>
       <c r="L44">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="M44">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1962,203 +1956,203 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="K45">
-        <v>0.2478591817316841</v>
+        <v>0.3207547169811321</v>
       </c>
       <c r="L45">
-        <v>521</v>
+        <v>51</v>
       </c>
       <c r="M45">
-        <v>562</v>
+        <v>51</v>
       </c>
       <c r="N45">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>1581</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K46">
-        <v>0.2451154529307282</v>
+        <v>0.3168316831683168</v>
       </c>
       <c r="L46">
-        <v>138</v>
+        <v>32</v>
       </c>
       <c r="M46">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="N46">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>425</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="K47">
-        <v>0.2438865340723834</v>
+        <v>0.3164556962025317</v>
       </c>
       <c r="L47">
-        <v>748</v>
+        <v>25</v>
       </c>
       <c r="M47">
-        <v>788</v>
+        <v>25</v>
       </c>
       <c r="N47">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>2319</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K48">
-        <v>0.2384615384615385</v>
+        <v>0.3130434782608696</v>
       </c>
       <c r="L48">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="M48">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="N48">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>99</v>
+        <v>158</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K49">
-        <v>0.2366412213740458</v>
+        <v>0.3116279069767442</v>
       </c>
       <c r="L49">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="M49">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="N49">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>100</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K50">
-        <v>0.2363636363636364</v>
+        <v>0.3082706766917293</v>
       </c>
       <c r="L50">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="M50">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="N50">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K51">
-        <v>0.2349665924276169</v>
+        <v>0.3064516129032258</v>
       </c>
       <c r="L51">
-        <v>211</v>
+        <v>38</v>
       </c>
       <c r="M51">
-        <v>214</v>
+        <v>38</v>
       </c>
       <c r="N51">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>687</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K52">
-        <v>0.2327586206896552</v>
+        <v>0.3051948051948052</v>
       </c>
       <c r="L52">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="M52">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2170,163 +2164,163 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>89</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K53">
-        <v>0.2218045112781955</v>
+        <v>0.2860576923076923</v>
       </c>
       <c r="L53">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="M53">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="N53">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>207</v>
+        <v>297</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K54">
-        <v>0.2152046783625731</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L54">
-        <v>184</v>
+        <v>32</v>
       </c>
       <c r="M54">
-        <v>196</v>
+        <v>32</v>
       </c>
       <c r="N54">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>671</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K55">
-        <v>0.2143974960876369</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L55">
-        <v>137</v>
+        <v>34</v>
       </c>
       <c r="M55">
-        <v>148</v>
+        <v>34</v>
       </c>
       <c r="N55">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>502</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K56">
-        <v>0.1931034482758621</v>
+        <v>0.2774049217002237</v>
       </c>
       <c r="L56">
-        <v>28</v>
+        <v>248</v>
       </c>
       <c r="M56">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="N56">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>117</v>
+        <v>646</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K57">
-        <v>0.1794871794871795</v>
+        <v>0.2729885057471265</v>
       </c>
       <c r="L57">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="M57">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="N57">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="O57">
-        <v>0.06999999999999995</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>192</v>
+        <v>253</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="K58">
-        <v>0.1730890713834491</v>
+        <v>0.2680412371134021</v>
       </c>
       <c r="L58">
-        <v>548</v>
+        <v>26</v>
       </c>
       <c r="M58">
-        <v>583</v>
+        <v>26</v>
       </c>
       <c r="N58">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>2618</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2334,25 +2328,25 @@
         <v>70</v>
       </c>
       <c r="K59">
-        <v>0.1666666666666667</v>
+        <v>0.2660550458715596</v>
       </c>
       <c r="L59">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M59">
         <v>29</v>
       </c>
       <c r="N59">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>135</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2360,25 +2354,25 @@
         <v>71</v>
       </c>
       <c r="K60">
-        <v>0.1660649819494585</v>
+        <v>0.2657342657342657</v>
       </c>
       <c r="L60">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="M60">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="N60">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>231</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2386,13 +2380,13 @@
         <v>72</v>
       </c>
       <c r="K61">
-        <v>0.1633986928104575</v>
+        <v>0.2589285714285715</v>
       </c>
       <c r="L61">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="M61">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2404,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>256</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2412,25 +2406,25 @@
         <v>73</v>
       </c>
       <c r="K62">
-        <v>0.1576086956521739</v>
+        <v>0.2566371681415929</v>
       </c>
       <c r="L62">
         <v>29</v>
       </c>
       <c r="M62">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N62">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O62">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>155</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2438,25 +2432,25 @@
         <v>74</v>
       </c>
       <c r="K63">
-        <v>0.15625</v>
+        <v>0.2552719200887902</v>
       </c>
       <c r="L63">
-        <v>35</v>
+        <v>230</v>
       </c>
       <c r="M63">
-        <v>36</v>
+        <v>230</v>
       </c>
       <c r="N63">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O63">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>189</v>
+        <v>671</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2464,25 +2458,25 @@
         <v>75</v>
       </c>
       <c r="K64">
-        <v>0.1471571906354515</v>
+        <v>0.2546816479400749</v>
       </c>
       <c r="L64">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="M64">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="N64">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O64">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>255</v>
+        <v>199</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2490,25 +2484,25 @@
         <v>76</v>
       </c>
       <c r="K65">
-        <v>0.1453488372093023</v>
+        <v>0.250402835965195</v>
       </c>
       <c r="L65">
-        <v>25</v>
+        <v>777</v>
       </c>
       <c r="M65">
-        <v>25</v>
+        <v>781</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65">
-        <v>147</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2516,25 +2510,25 @@
         <v>77</v>
       </c>
       <c r="K66">
-        <v>0.1305483028720627</v>
+        <v>0.2455830388692579</v>
       </c>
       <c r="L66">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="M66">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="N66">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="O66">
-        <v>0.06999999999999995</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P66" t="b">
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>999</v>
+        <v>427</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2542,25 +2536,25 @@
         <v>78</v>
       </c>
       <c r="K67">
-        <v>0.1205936920222635</v>
+        <v>0.245398773006135</v>
       </c>
       <c r="L67">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="M67">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="N67">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="O67">
-        <v>0.07999999999999996</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>474</v>
+        <v>246</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2568,25 +2562,25 @@
         <v>79</v>
       </c>
       <c r="K68">
-        <v>0.1204481792717087</v>
+        <v>0.2436974789915966</v>
       </c>
       <c r="L68">
-        <v>43</v>
+        <v>522</v>
       </c>
       <c r="M68">
-        <v>46</v>
+        <v>523</v>
       </c>
       <c r="N68">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O68">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P68" t="b">
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>314</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2594,13 +2588,13 @@
         <v>80</v>
       </c>
       <c r="K69">
-        <v>0.1145374449339207</v>
+        <v>0.234375</v>
       </c>
       <c r="L69">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M69">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2612,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>201</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2620,25 +2614,597 @@
         <v>81</v>
       </c>
       <c r="K70">
-        <v>0.08832807570977919</v>
+        <v>0.2248062015503876</v>
       </c>
       <c r="L70">
+        <v>29</v>
+      </c>
+      <c r="M70">
+        <v>29</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="10:17">
+      <c r="J71" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K71">
+        <v>0.2246376811594203</v>
+      </c>
+      <c r="L71">
+        <v>31</v>
+      </c>
+      <c r="M71">
+        <v>31</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72" spans="10:17">
+      <c r="J72" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K72">
+        <v>0.219409282700422</v>
+      </c>
+      <c r="L72">
+        <v>52</v>
+      </c>
+      <c r="M72">
+        <v>52</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="73" spans="10:17">
+      <c r="J73" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M70">
+      <c r="K73">
+        <v>0.2162162162162162</v>
+      </c>
+      <c r="L73">
+        <v>40</v>
+      </c>
+      <c r="M73">
+        <v>40</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="10:17">
+      <c r="J74" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K74">
+        <v>0.2157164869029276</v>
+      </c>
+      <c r="L74">
+        <v>140</v>
+      </c>
+      <c r="M74">
+        <v>141</v>
+      </c>
+      <c r="N74">
+        <v>0.99</v>
+      </c>
+      <c r="O74">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P74" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="75" spans="10:17">
+      <c r="J75" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K75">
+        <v>0.2147239263803681</v>
+      </c>
+      <c r="L75">
+        <v>35</v>
+      </c>
+      <c r="M75">
+        <v>36</v>
+      </c>
+      <c r="N75">
+        <v>0.97</v>
+      </c>
+      <c r="O75">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P75" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="76" spans="10:17">
+      <c r="J76" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K76">
+        <v>0.2090069284064665</v>
+      </c>
+      <c r="L76">
+        <v>181</v>
+      </c>
+      <c r="M76">
+        <v>182</v>
+      </c>
+      <c r="N76">
+        <v>0.99</v>
+      </c>
+      <c r="O76">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P76" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="77" spans="10:17">
+      <c r="J77" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K77">
+        <v>0.2047244094488189</v>
+      </c>
+      <c r="L77">
+        <v>26</v>
+      </c>
+      <c r="M77">
+        <v>26</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q77">
         <v>101</v>
       </c>
-      <c r="N70">
-        <v>0.83</v>
-      </c>
-      <c r="O70">
-        <v>0.17</v>
-      </c>
-      <c r="P70" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q70">
-        <v>867</v>
+    </row>
+    <row r="78" spans="10:17">
+      <c r="J78" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K78">
+        <v>0.2043795620437956</v>
+      </c>
+      <c r="L78">
+        <v>28</v>
+      </c>
+      <c r="M78">
+        <v>28</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="79" spans="10:17">
+      <c r="J79" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K79">
+        <v>0.1823584610572412</v>
+      </c>
+      <c r="L79">
+        <v>583</v>
+      </c>
+      <c r="M79">
+        <v>587</v>
+      </c>
+      <c r="N79">
+        <v>0.99</v>
+      </c>
+      <c r="O79">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P79" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="80" spans="10:17">
+      <c r="J80" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K80">
+        <v>0.1822222222222222</v>
+      </c>
+      <c r="L80">
+        <v>41</v>
+      </c>
+      <c r="M80">
+        <v>41</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="81" spans="10:17">
+      <c r="J81" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K81">
+        <v>0.1744186046511628</v>
+      </c>
+      <c r="L81">
+        <v>30</v>
+      </c>
+      <c r="M81">
+        <v>30</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="82" spans="10:17">
+      <c r="J82" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K82">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="L82">
+        <v>51</v>
+      </c>
+      <c r="M82">
+        <v>51</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="83" spans="10:17">
+      <c r="J83" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K83">
+        <v>0.1566265060240964</v>
+      </c>
+      <c r="L83">
+        <v>26</v>
+      </c>
+      <c r="M83">
+        <v>26</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="84" spans="10:17">
+      <c r="J84" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K84">
+        <v>0.1497797356828194</v>
+      </c>
+      <c r="L84">
+        <v>34</v>
+      </c>
+      <c r="M84">
+        <v>34</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="85" spans="10:17">
+      <c r="J85" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K85">
+        <v>0.1494661921708185</v>
+      </c>
+      <c r="L85">
+        <v>42</v>
+      </c>
+      <c r="M85">
+        <v>42</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="86" spans="10:17">
+      <c r="J86" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K86">
+        <v>0.1347150259067358</v>
+      </c>
+      <c r="L86">
+        <v>156</v>
+      </c>
+      <c r="M86">
+        <v>159</v>
+      </c>
+      <c r="N86">
+        <v>0.98</v>
+      </c>
+      <c r="O86">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P86" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="87" spans="10:17">
+      <c r="J87" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K87">
+        <v>0.1307550644567219</v>
+      </c>
+      <c r="L87">
+        <v>71</v>
+      </c>
+      <c r="M87">
+        <v>73</v>
+      </c>
+      <c r="N87">
+        <v>0.97</v>
+      </c>
+      <c r="O87">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P87" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q87">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="88" spans="10:17">
+      <c r="J88" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K88">
+        <v>0.13</v>
+      </c>
+      <c r="L88">
+        <v>39</v>
+      </c>
+      <c r="M88">
+        <v>39</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="89" spans="10:17">
+      <c r="J89" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K89">
+        <v>0.125</v>
+      </c>
+      <c r="L89">
+        <v>45</v>
+      </c>
+      <c r="M89">
+        <v>45</v>
+      </c>
+      <c r="N89">
+        <v>1</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="90" spans="10:17">
+      <c r="J90" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K90">
+        <v>0.1222707423580786</v>
+      </c>
+      <c r="L90">
+        <v>28</v>
+      </c>
+      <c r="M90">
+        <v>29</v>
+      </c>
+      <c r="N90">
+        <v>0.97</v>
+      </c>
+      <c r="O90">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P90" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q90">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="91" spans="10:17">
+      <c r="J91" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K91">
+        <v>0.1036269430051813</v>
+      </c>
+      <c r="L91">
+        <v>100</v>
+      </c>
+      <c r="M91">
+        <v>103</v>
+      </c>
+      <c r="N91">
+        <v>0.97</v>
+      </c>
+      <c r="O91">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P91" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q91">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="92" spans="10:17">
+      <c r="J92" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K92">
+        <v>0.09342560553633218</v>
+      </c>
+      <c r="L92">
+        <v>27</v>
+      </c>
+      <c r="M92">
+        <v>27</v>
+      </c>
+      <c r="N92">
+        <v>1</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
